--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.7115687224412</v>
+        <v>2.462258333333333</v>
       </c>
       <c r="H2">
-        <v>26.7115687224412</v>
+        <v>7.386775</v>
       </c>
       <c r="I2">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="J2">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.2749518318829</v>
+        <v>88.76498299999999</v>
       </c>
       <c r="N2">
-        <v>23.2749518318829</v>
+        <v>266.294949</v>
       </c>
       <c r="O2">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="P2">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="Q2">
-        <v>621.7104753688487</v>
+        <v>218.5623190999416</v>
       </c>
       <c r="R2">
-        <v>621.7104753688487</v>
+        <v>1967.060871899475</v>
       </c>
       <c r="S2">
-        <v>0.06968436312309877</v>
+        <v>0.01347140514522471</v>
       </c>
       <c r="T2">
-        <v>0.06968436312309877</v>
+        <v>0.01347140514522471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.7115687224412</v>
+        <v>2.462258333333333</v>
       </c>
       <c r="H3">
-        <v>26.7115687224412</v>
+        <v>7.386775</v>
       </c>
       <c r="I3">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="J3">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>97.92815060772899</v>
+        <v>97.95392866666667</v>
       </c>
       <c r="N3">
-        <v>97.92815060772899</v>
+        <v>293.861786</v>
       </c>
       <c r="O3">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035443</v>
       </c>
       <c r="P3">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035442</v>
       </c>
       <c r="Q3">
-        <v>2615.814524819925</v>
+        <v>241.1878771422389</v>
       </c>
       <c r="R3">
-        <v>2615.814524819925</v>
+        <v>2170.69089428015</v>
       </c>
       <c r="S3">
-        <v>0.2931933374648122</v>
+        <v>0.01486596419035092</v>
       </c>
       <c r="T3">
-        <v>0.2931933374648122</v>
+        <v>0.01486596419035092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.7115687224412</v>
+        <v>2.462258333333333</v>
       </c>
       <c r="H4">
-        <v>26.7115687224412</v>
+        <v>7.386775</v>
       </c>
       <c r="I4">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="J4">
-        <v>0.6914186026692235</v>
+        <v>0.04766847958679572</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>109.734427180424</v>
+        <v>127.375404</v>
       </c>
       <c r="N4">
-        <v>109.734427180424</v>
+        <v>382.126212</v>
       </c>
       <c r="O4">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="P4">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="Q4">
-        <v>2931.178692847615</v>
+        <v>313.6311499607</v>
       </c>
       <c r="R4">
-        <v>2931.178692847615</v>
+        <v>2822.6803496463</v>
       </c>
       <c r="S4">
-        <v>0.3285409020813125</v>
+        <v>0.01933111025122009</v>
       </c>
       <c r="T4">
-        <v>0.3285409020813125</v>
+        <v>0.01933111025122009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9214223763246</v>
+        <v>27.97876166666667</v>
       </c>
       <c r="H5">
-        <v>11.9214223763246</v>
+        <v>83.936285</v>
       </c>
       <c r="I5">
-        <v>0.3085813973307764</v>
+        <v>0.5416592610596597</v>
       </c>
       <c r="J5">
-        <v>0.3085813973307764</v>
+        <v>0.5416592610596597</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.2749518318829</v>
+        <v>88.76498299999999</v>
       </c>
       <c r="N5">
-        <v>23.2749518318829</v>
+        <v>266.294949</v>
       </c>
       <c r="O5">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="P5">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="Q5">
-        <v>277.470531576486</v>
+        <v>2483.534303702718</v>
       </c>
       <c r="R5">
-        <v>277.470531576486</v>
+        <v>22351.80873332446</v>
       </c>
       <c r="S5">
-        <v>0.03110025975815157</v>
+        <v>0.1530762344351964</v>
       </c>
       <c r="T5">
-        <v>0.03110025975815157</v>
+        <v>0.1530762344351964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9214223763246</v>
+        <v>27.97876166666667</v>
       </c>
       <c r="H6">
-        <v>11.9214223763246</v>
+        <v>83.936285</v>
       </c>
       <c r="I6">
-        <v>0.3085813973307764</v>
+        <v>0.5416592610596597</v>
       </c>
       <c r="J6">
-        <v>0.3085813973307764</v>
+        <v>0.5416592610596597</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>97.92815060772899</v>
+        <v>97.95392866666667</v>
       </c>
       <c r="N6">
-        <v>97.92815060772899</v>
+        <v>293.861786</v>
       </c>
       <c r="O6">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035443</v>
       </c>
       <c r="P6">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035442</v>
       </c>
       <c r="Q6">
-        <v>1167.442845927066</v>
+        <v>2740.629624478335</v>
       </c>
       <c r="R6">
-        <v>1167.442845927066</v>
+        <v>24665.66662030501</v>
       </c>
       <c r="S6">
-        <v>0.1308527271521051</v>
+        <v>0.1689226769572769</v>
       </c>
       <c r="T6">
-        <v>0.1308527271521051</v>
+        <v>0.1689226769572769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>27.97876166666667</v>
+      </c>
+      <c r="H7">
+        <v>83.936285</v>
+      </c>
+      <c r="I7">
+        <v>0.5416592610596597</v>
+      </c>
+      <c r="J7">
+        <v>0.5416592610596597</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>127.375404</v>
+      </c>
+      <c r="N7">
+        <v>382.126212</v>
+      </c>
+      <c r="O7">
+        <v>0.4055323437791133</v>
+      </c>
+      <c r="P7">
+        <v>0.4055323437791133</v>
+      </c>
+      <c r="Q7">
+        <v>3563.80607071138</v>
+      </c>
+      <c r="R7">
+        <v>32074.25463640242</v>
+      </c>
+      <c r="S7">
+        <v>0.2196603496671864</v>
+      </c>
+      <c r="T7">
+        <v>0.2196603496671864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>21.21278466666666</v>
+      </c>
+      <c r="H8">
+        <v>63.63835399999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="J8">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>88.76498299999999</v>
+      </c>
+      <c r="N8">
+        <v>266.294949</v>
+      </c>
+      <c r="O8">
+        <v>0.2826061427173424</v>
+      </c>
+      <c r="P8">
+        <v>0.2826061427173424</v>
+      </c>
+      <c r="Q8">
+        <v>1882.952470319327</v>
+      </c>
+      <c r="R8">
+        <v>16946.57223287394</v>
+      </c>
+      <c r="S8">
+        <v>0.1160585031369212</v>
+      </c>
+      <c r="T8">
+        <v>0.1160585031369213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.9214223763246</v>
-      </c>
-      <c r="H7">
-        <v>11.9214223763246</v>
-      </c>
-      <c r="I7">
-        <v>0.3085813973307764</v>
-      </c>
-      <c r="J7">
-        <v>0.3085813973307764</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>109.734427180424</v>
-      </c>
-      <c r="N7">
-        <v>109.734427180424</v>
-      </c>
-      <c r="O7">
-        <v>0.4751693125018324</v>
-      </c>
-      <c r="P7">
-        <v>0.4751693125018324</v>
-      </c>
-      <c r="Q7">
-        <v>1308.190455641869</v>
-      </c>
-      <c r="R7">
-        <v>1308.190455641869</v>
-      </c>
-      <c r="S7">
-        <v>0.1466284104205198</v>
-      </c>
-      <c r="T7">
-        <v>0.1466284104205198</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.21278466666666</v>
+      </c>
+      <c r="H9">
+        <v>63.63835399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="J9">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>97.95392866666667</v>
+      </c>
+      <c r="N9">
+        <v>293.861786</v>
+      </c>
+      <c r="O9">
+        <v>0.3118615135035443</v>
+      </c>
+      <c r="P9">
+        <v>0.3118615135035442</v>
+      </c>
+      <c r="Q9">
+        <v>2077.875596060027</v>
+      </c>
+      <c r="R9">
+        <v>18700.88036454024</v>
+      </c>
+      <c r="S9">
+        <v>0.1280728723559165</v>
+      </c>
+      <c r="T9">
+        <v>0.1280728723559165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>21.21278466666666</v>
+      </c>
+      <c r="H10">
+        <v>63.63835399999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="J10">
+        <v>0.4106722593535446</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>127.375404</v>
+      </c>
+      <c r="N10">
+        <v>382.126212</v>
+      </c>
+      <c r="O10">
+        <v>0.4055323437791133</v>
+      </c>
+      <c r="P10">
+        <v>0.4055323437791133</v>
+      </c>
+      <c r="Q10">
+        <v>2701.987016881672</v>
+      </c>
+      <c r="R10">
+        <v>24317.88315193505</v>
+      </c>
+      <c r="S10">
+        <v>0.1665408838607068</v>
+      </c>
+      <c r="T10">
+        <v>0.1665408838607068</v>
       </c>
     </row>
   </sheetData>
